--- a/Result/580_CIDANAU_190219_Edit.xlsx
+++ b/Result/580_CIDANAU_190219_Edit.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -4509,16 +4509,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>506730</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>598170</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
